--- a/metalab_challenge/synboot_MA_data.xlsx
+++ b/metalab_challenge/synboot_MA_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mollylewis/Documents/research/Projects/1_in_progress/SyntacticBootstrapping/metalab_challenge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoanjie/Desktop/projects/SyntacticBootstrapping/metalab_challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67616B9E-77C9-2E42-8E39-DDBC87124175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E3EC62-6FB2-E648-9A47-73B06C9FF5A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="358">
   <si>
     <t>study_ID</t>
   </si>
@@ -768,9 +768,6 @@
     <t>Jin, K. S. (2015). The role of syntactic and discourse information in verb learning (Doctoral dissertation, University of Illinois at Urbana-Champaign).</t>
   </si>
   <si>
-    <t>jyotishi</t>
-  </si>
-  <si>
     <t>messenger2014</t>
   </si>
   <si>
@@ -900,9 +897,6 @@
     <t>intransitive_simple_events</t>
   </si>
   <si>
-    <t>eye_tracking</t>
-  </si>
-  <si>
     <t>looking</t>
   </si>
   <si>
@@ -990,9 +984,6 @@
     <t>naigles6</t>
   </si>
   <si>
-    <t xml:space="preserve">Jyotishi, M. &amp; Naigles, L. (Unknown Date) Syntactic Bootstrapping: 28-month olds can assign verb meaning using both between transitive and intransitive frames at the same visit. Poster presented at Unknown Conference. </t>
-  </si>
-  <si>
     <t>Naigles, L. (Unknown Date) Visit 5, Unpublished Data</t>
   </si>
   <si>
@@ -1065,9 +1056,6 @@
     <t>Messenger, Yuan, &amp; Fisher (2015)</t>
   </si>
   <si>
-    <t xml:space="preserve">Jyotishi &amp; Naigles (Unknown Date) </t>
-  </si>
-  <si>
     <t>Jin (2015)</t>
   </si>
   <si>
@@ -1098,15 +1086,6 @@
     <t>Hirsh-Pasek, K., Golinkoff, R. M., &amp; Naigles, L. (1996). Young children’s use of syntactic frames to derive meaning. The origins of grammar: Evidence from early language comprehension, 123-158.</t>
   </si>
   <si>
-    <t>Arunachalam, S., Escovar, E., Hansen, M. A., &amp; Waxman, S. R. (2013)</t>
-  </si>
-  <si>
-    <t>Arunachalam, S., &amp; Dennis, S. (2019)</t>
-  </si>
-  <si>
-    <t>Hirsh-Pasek, K., Golinkoff, R. M., &amp; Naigles, L. (1996)</t>
-  </si>
-  <si>
     <t>10.1080/01690965.2011.641744</t>
   </si>
   <si>
@@ -1140,12 +1119,6 @@
     <t>Naigles &amp; Kako (1993)</t>
   </si>
   <si>
-    <t>Naigles, Kelty,  Jaffery, &amp; Fein (2011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He, Huang, Waxman &amp; Arunachalam (2020) </t>
-  </si>
-  <si>
     <t>SEE SPEC.YAML</t>
   </si>
   <si>
@@ -1153,6 +1126,30 @@
   </si>
   <si>
     <t>median_production_vocab</t>
+  </si>
+  <si>
+    <t>Arunachalam et al. (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He et al. (2020) </t>
+  </si>
+  <si>
+    <t>jyotishi2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jyotishi, M. &amp; Naigles, L. (2017) Syntactic Bootstrapping: 28-month olds can shift between transitive and intransitive frames. Poster presented at the 14th International Congress for the Study of Child Language, Lyons, France. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jyotishi &amp; Naigles (2017) </t>
+  </si>
+  <si>
+    <t>Naigles et al. (2011)</t>
+  </si>
+  <si>
+    <t>Hirsh-Pasek et al. (1996)</t>
+  </si>
+  <si>
+    <t>Arunachalam &amp; Dennis (2019)</t>
   </si>
 </sst>
 </file>
@@ -1711,16 +1708,16 @@
   </sheetPr>
   <dimension ref="A1:BK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY7" sqref="AY7"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="6.83203125" customWidth="1"/>
@@ -1895,55 +1892,55 @@
         <v>45</v>
       </c>
       <c r="AU1" s="4" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="AW1" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AY1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BC1" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BD1" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="BC1" s="46" t="s">
+      <c r="BE1" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="BD1" s="47" t="s">
+      <c r="BF1" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="BE1" s="47" t="s">
+      <c r="BG1" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="BF1" s="47" t="s">
+      <c r="BH1" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="BG1" s="47" t="s">
+      <c r="BI1" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="BH1" s="47" t="s">
+      <c r="BJ1" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="BI1" s="47" t="s">
+      <c r="BK1" s="47" t="s">
         <v>288</v>
-      </c>
-      <c r="BJ1" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="BK1" s="47" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="14" x14ac:dyDescent="0.15">
@@ -1954,10 +1951,10 @@
         <v>222</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>60</v>
@@ -2029,7 +2026,7 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI2" s="5" t="s">
         <v>221</v>
@@ -2055,25 +2052,25 @@
         <v>210</v>
       </c>
       <c r="AX2" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY2" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AZ2" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA2" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB2" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC2" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD2" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE2" s="33" t="s">
         <v>105</v>
@@ -2082,7 +2079,7 @@
         <v>60</v>
       </c>
       <c r="BG2" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH2" s="33">
         <v>4</v>
@@ -2105,10 +2102,10 @@
         <v>222</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>60</v>
@@ -2178,7 +2175,7 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI3" s="5" t="s">
         <v>221</v>
@@ -2204,25 +2201,25 @@
         <v>211</v>
       </c>
       <c r="AX3" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY3" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ3" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA3" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB3" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC3" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD3" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE3" s="33" t="s">
         <v>105</v>
@@ -2231,7 +2228,7 @@
         <v>60</v>
       </c>
       <c r="BG3" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH3" s="33">
         <v>4</v>
@@ -2254,10 +2251,10 @@
         <v>223</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>60</v>
@@ -2275,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>213</v>
@@ -2318,7 +2315,7 @@
       <c r="AC4" s="33"/>
       <c r="AE4" s="33"/>
       <c r="AH4" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI4" s="5" t="s">
         <v>221</v>
@@ -2333,25 +2330,25 @@
         <v>210</v>
       </c>
       <c r="AX4" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY4" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ4" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA4" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB4" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC4" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD4" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE4" s="33" t="s">
         <v>105</v>
@@ -2360,7 +2357,7 @@
         <v>60</v>
       </c>
       <c r="BG4" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH4" s="33">
         <v>4</v>
@@ -2383,10 +2380,10 @@
         <v>223</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>60</v>
@@ -2404,7 +2401,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>213</v>
@@ -2447,7 +2444,7 @@
       <c r="AC5" s="33"/>
       <c r="AE5" s="33"/>
       <c r="AH5" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI5" s="5" t="s">
         <v>221</v>
@@ -2462,25 +2459,25 @@
         <v>211</v>
       </c>
       <c r="AX5" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY5" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ5" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA5" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB5" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC5" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD5" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE5" s="33" t="s">
         <v>105</v>
@@ -2489,7 +2486,7 @@
         <v>60</v>
       </c>
       <c r="BG5" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH5" s="33">
         <v>4</v>
@@ -2506,22 +2503,22 @@
     </row>
     <row r="6" spans="1:63" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="44" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G6" s="33">
         <v>1</v>
@@ -2533,7 +2530,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="44" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>213</v>
@@ -2576,7 +2573,7 @@
       <c r="AC6" s="33"/>
       <c r="AE6" s="33"/>
       <c r="AH6" s="44" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AI6" s="5" t="s">
         <v>221</v>
@@ -2591,25 +2588,25 @@
         <v>210</v>
       </c>
       <c r="AX6" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY6" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AZ6" s="44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA6" s="44" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB6" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC6" s="44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD6" s="44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE6" s="44" t="s">
         <v>105</v>
@@ -2618,7 +2615,7 @@
         <v>60</v>
       </c>
       <c r="BG6" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH6" s="44">
         <v>4</v>
@@ -2635,22 +2632,22 @@
     </row>
     <row r="7" spans="1:63" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="44" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G7" s="33">
         <v>1</v>
@@ -2662,7 +2659,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>213</v>
@@ -2705,7 +2702,7 @@
       <c r="AC7" s="33"/>
       <c r="AE7" s="33"/>
       <c r="AH7" s="44" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>221</v>
@@ -2720,25 +2717,25 @@
         <v>211</v>
       </c>
       <c r="AX7" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY7" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ7" s="44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA7" s="44" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB7" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC7" s="44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD7" s="44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE7" s="44" t="s">
         <v>105</v>
@@ -2747,7 +2744,7 @@
         <v>60</v>
       </c>
       <c r="BG7" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH7" s="44">
         <v>4</v>
@@ -2764,22 +2761,22 @@
     </row>
     <row r="8" spans="1:63" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="44" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G8" s="33">
         <v>1</v>
@@ -2791,7 +2788,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>213</v>
@@ -2834,7 +2831,7 @@
       <c r="AC8" s="33"/>
       <c r="AE8" s="33"/>
       <c r="AH8" s="44" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AI8" s="5" t="s">
         <v>221</v>
@@ -2849,25 +2846,25 @@
         <v>210</v>
       </c>
       <c r="AX8" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY8" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ8" s="44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA8" s="44" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB8" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC8" s="44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD8" s="44" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE8" s="44" t="s">
         <v>105</v>
@@ -2876,7 +2873,7 @@
         <v>60</v>
       </c>
       <c r="BG8" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH8" s="44">
         <v>4</v>
@@ -2893,22 +2890,22 @@
     </row>
     <row r="9" spans="1:63" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="44" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G9" s="33">
         <v>1</v>
@@ -2920,7 +2917,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>213</v>
@@ -2963,7 +2960,7 @@
       <c r="AC9" s="33"/>
       <c r="AE9" s="33"/>
       <c r="AH9" s="44" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AI9" s="5" t="s">
         <v>221</v>
@@ -2978,25 +2975,25 @@
         <v>211</v>
       </c>
       <c r="AX9" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY9" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ9" s="44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA9" s="44" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB9" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC9" s="44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD9" s="44" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE9" s="44" t="s">
         <v>105</v>
@@ -3005,7 +3002,7 @@
         <v>60</v>
       </c>
       <c r="BG9" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH9" s="44">
         <v>4</v>
@@ -3022,22 +3019,22 @@
     </row>
     <row r="10" spans="1:63" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="44" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G10" s="33">
         <v>2</v>
@@ -3049,7 +3046,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>213</v>
@@ -3092,7 +3089,7 @@
       <c r="AC10" s="33"/>
       <c r="AE10" s="33"/>
       <c r="AH10" s="44" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AI10" s="5" t="s">
         <v>221</v>
@@ -3107,25 +3104,25 @@
         <v>210</v>
       </c>
       <c r="AX10" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY10" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AZ10" s="44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA10" s="44" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB10" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC10" s="44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD10" s="44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE10" s="44" t="s">
         <v>105</v>
@@ -3134,7 +3131,7 @@
         <v>60</v>
       </c>
       <c r="BG10" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH10" s="44">
         <v>4</v>
@@ -3151,22 +3148,22 @@
     </row>
     <row r="11" spans="1:63" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="44" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G11" s="33">
         <v>2</v>
@@ -3178,7 +3175,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>213</v>
@@ -3221,7 +3218,7 @@
       <c r="AC11" s="33"/>
       <c r="AE11" s="33"/>
       <c r="AH11" s="44" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AI11" s="5" t="s">
         <v>221</v>
@@ -3236,25 +3233,25 @@
         <v>211</v>
       </c>
       <c r="AX11" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY11" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ11" s="44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA11" s="44" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB11" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC11" s="44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD11" s="44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE11" s="44" t="s">
         <v>105</v>
@@ -3263,7 +3260,7 @@
         <v>60</v>
       </c>
       <c r="BG11" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH11" s="44">
         <v>4</v>
@@ -3280,22 +3277,22 @@
     </row>
     <row r="12" spans="1:63" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="44" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B12" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>346</v>
       </c>
       <c r="G12" s="33">
         <v>6</v>
@@ -3307,7 +3304,7 @@
         <v>11</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>213</v>
@@ -3350,7 +3347,7 @@
       <c r="AC12" s="33"/>
       <c r="AE12" s="33"/>
       <c r="AH12" s="44" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AI12" s="5" t="s">
         <v>221</v>
@@ -3365,25 +3362,25 @@
         <v>210</v>
       </c>
       <c r="AX12" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY12" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ12" s="44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA12" s="44" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB12" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC12" s="44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD12" s="44" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE12" s="44" t="s">
         <v>105</v>
@@ -3392,7 +3389,7 @@
         <v>105</v>
       </c>
       <c r="BG12" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH12" s="44">
         <v>4</v>
@@ -3415,10 +3412,10 @@
         <v>225</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>60</v>
@@ -3430,13 +3427,13 @@
         <v>1</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I13" s="33">
         <v>12</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>213</v>
@@ -3477,7 +3474,7 @@
       <c r="AB13" s="33"/>
       <c r="AE13" s="33"/>
       <c r="AH13" s="33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AI13" s="5" t="s">
         <v>221</v>
@@ -3492,25 +3489,25 @@
         <v>210</v>
       </c>
       <c r="AX13" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY13" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ13" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA13" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB13" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC13" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD13" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE13" s="33" t="s">
         <v>60</v>
@@ -3519,7 +3516,7 @@
         <v>60</v>
       </c>
       <c r="BG13" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH13" s="33">
         <v>2</v>
@@ -3542,10 +3539,10 @@
         <v>225</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>60</v>
@@ -3557,13 +3554,13 @@
         <v>1</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I14" s="33">
         <v>13</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>213</v>
@@ -3604,7 +3601,7 @@
       <c r="AB14" s="33"/>
       <c r="AE14" s="33"/>
       <c r="AH14" s="33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>221</v>
@@ -3619,25 +3616,25 @@
         <v>211</v>
       </c>
       <c r="AX14" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY14" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ14" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA14" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB14" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC14" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD14" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE14" s="33" t="s">
         <v>60</v>
@@ -3646,7 +3643,7 @@
         <v>60</v>
       </c>
       <c r="BG14" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH14" s="33">
         <v>2</v>
@@ -3669,10 +3666,10 @@
         <v>225</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>60</v>
@@ -3684,13 +3681,13 @@
         <v>1</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I15" s="33">
         <v>14</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>213</v>
@@ -3731,7 +3728,7 @@
       <c r="AB15" s="33"/>
       <c r="AE15" s="33"/>
       <c r="AH15" s="33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AI15" s="5" t="s">
         <v>221</v>
@@ -3746,25 +3743,25 @@
         <v>211</v>
       </c>
       <c r="AX15" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY15" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ15" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA15" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB15" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC15" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD15" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE15" s="33" t="s">
         <v>60</v>
@@ -3773,7 +3770,7 @@
         <v>60</v>
       </c>
       <c r="BG15" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH15" s="33">
         <v>2</v>
@@ -3796,10 +3793,10 @@
         <v>225</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>60</v>
@@ -3811,13 +3808,13 @@
         <v>1</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I16" s="33">
         <v>15</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>213</v>
@@ -3858,7 +3855,7 @@
       <c r="AB16" s="33"/>
       <c r="AE16" s="33"/>
       <c r="AH16" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI16" s="5" t="s">
         <v>221</v>
@@ -3873,25 +3870,25 @@
         <v>210</v>
       </c>
       <c r="AX16" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY16" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ16" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA16" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB16" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC16" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD16" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE16" s="33" t="s">
         <v>60</v>
@@ -3900,7 +3897,7 @@
         <v>60</v>
       </c>
       <c r="BG16" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH16" s="33">
         <v>2</v>
@@ -3923,10 +3920,10 @@
         <v>225</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>60</v>
@@ -3938,13 +3935,13 @@
         <v>1</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I17" s="33">
         <v>16</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>213</v>
@@ -3985,7 +3982,7 @@
       <c r="AB17" s="33"/>
       <c r="AE17" s="33"/>
       <c r="AH17" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI17" s="5" t="s">
         <v>221</v>
@@ -4000,25 +3997,25 @@
         <v>211</v>
       </c>
       <c r="AX17" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY17" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ17" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA17" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB17" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC17" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD17" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE17" s="33" t="s">
         <v>60</v>
@@ -4027,7 +4024,7 @@
         <v>60</v>
       </c>
       <c r="BG17" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH17" s="33">
         <v>2</v>
@@ -4050,10 +4047,10 @@
         <v>225</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>60</v>
@@ -4065,13 +4062,13 @@
         <v>2</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I18" s="33">
         <v>17</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>213</v>
@@ -4112,7 +4109,7 @@
       <c r="AB18" s="33"/>
       <c r="AE18" s="33"/>
       <c r="AH18" s="33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AI18" s="5" t="s">
         <v>221</v>
@@ -4127,25 +4124,25 @@
         <v>210</v>
       </c>
       <c r="AX18" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY18" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ18" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA18" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB18" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC18" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD18" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE18" s="33" t="s">
         <v>60</v>
@@ -4154,7 +4151,7 @@
         <v>60</v>
       </c>
       <c r="BG18" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH18" s="33">
         <v>2</v>
@@ -4177,10 +4174,10 @@
         <v>225</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>60</v>
@@ -4192,13 +4189,13 @@
         <v>2</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I19" s="33">
         <v>18</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>213</v>
@@ -4239,7 +4236,7 @@
       <c r="AB19" s="33"/>
       <c r="AE19" s="33"/>
       <c r="AH19" s="33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AI19" s="5" t="s">
         <v>221</v>
@@ -4254,25 +4251,25 @@
         <v>211</v>
       </c>
       <c r="AX19" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY19" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ19" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA19" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB19" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC19" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD19" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE19" s="33" t="s">
         <v>60</v>
@@ -4281,7 +4278,7 @@
         <v>60</v>
       </c>
       <c r="BG19" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH19" s="33">
         <v>2</v>
@@ -4304,10 +4301,10 @@
         <v>225</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>60</v>
@@ -4319,13 +4316,13 @@
         <v>2</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I20" s="33">
         <v>19</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>213</v>
@@ -4366,7 +4363,7 @@
       <c r="AB20" s="33"/>
       <c r="AE20" s="33"/>
       <c r="AH20" s="33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AI20" s="5" t="s">
         <v>221</v>
@@ -4381,25 +4378,25 @@
         <v>211</v>
       </c>
       <c r="AX20" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY20" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ20" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA20" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB20" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC20" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD20" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE20" s="33" t="s">
         <v>60</v>
@@ -4408,7 +4405,7 @@
         <v>60</v>
       </c>
       <c r="BG20" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH20" s="33">
         <v>2</v>
@@ -4431,10 +4428,10 @@
         <v>227</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>60</v>
@@ -4446,13 +4443,13 @@
         <v>1</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I21" s="33">
         <v>20</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>213</v>
@@ -4493,7 +4490,7 @@
       <c r="AB21" s="33"/>
       <c r="AE21" s="33"/>
       <c r="AH21" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI21" s="5" t="s">
         <v>221</v>
@@ -4508,25 +4505,25 @@
         <v>210</v>
       </c>
       <c r="AX21" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY21" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ21" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA21" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB21" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC21" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD21" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE21" s="33" t="s">
         <v>105</v>
@@ -4535,7 +4532,7 @@
         <v>105</v>
       </c>
       <c r="BG21" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH21" s="33">
         <v>4</v>
@@ -4558,10 +4555,10 @@
         <v>227</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>60</v>
@@ -4573,13 +4570,13 @@
         <v>1</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I22" s="33">
         <v>21</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>213</v>
@@ -4620,7 +4617,7 @@
       <c r="AB22" s="33"/>
       <c r="AE22" s="33"/>
       <c r="AH22" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI22" s="5" t="s">
         <v>221</v>
@@ -4635,25 +4632,25 @@
         <v>210</v>
       </c>
       <c r="AX22" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY22" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ22" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA22" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB22" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC22" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD22" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE22" s="33" t="s">
         <v>105</v>
@@ -4662,7 +4659,7 @@
         <v>105</v>
       </c>
       <c r="BG22" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH22" s="33">
         <v>4</v>
@@ -4685,7 +4682,7 @@
         <v>229</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>105</v>
@@ -4697,13 +4694,13 @@
         <v>1</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I23" s="33">
         <v>22</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>213</v>
@@ -4744,7 +4741,7 @@
       <c r="AB23" s="33"/>
       <c r="AE23" s="33"/>
       <c r="AH23" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI23" s="35" t="s">
         <v>221</v>
@@ -4759,25 +4756,25 @@
         <v>210</v>
       </c>
       <c r="AX23" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY23" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ23" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA23" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="BB23" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="BC23" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD23" s="33" t="s">
         <v>293</v>
-      </c>
-      <c r="BA23" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="BB23" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="BC23" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD23" s="33" t="s">
-        <v>295</v>
       </c>
       <c r="BE23" s="33" t="s">
         <v>105</v>
@@ -4786,7 +4783,7 @@
         <v>105</v>
       </c>
       <c r="BG23" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH23" s="33">
         <v>1</v>
@@ -4809,7 +4806,7 @@
         <v>229</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>105</v>
@@ -4821,13 +4818,13 @@
         <v>1</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I24" s="33">
         <v>23</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>213</v>
@@ -4868,7 +4865,7 @@
       <c r="AB24" s="33"/>
       <c r="AE24" s="33"/>
       <c r="AH24" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI24" s="35" t="s">
         <v>221</v>
@@ -4883,25 +4880,25 @@
         <v>211</v>
       </c>
       <c r="AX24" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY24" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ24" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA24" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="BB24" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="BC24" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD24" s="33" t="s">
         <v>293</v>
-      </c>
-      <c r="BA24" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="BB24" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="BC24" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD24" s="33" t="s">
-        <v>295</v>
       </c>
       <c r="BE24" s="33" t="s">
         <v>105</v>
@@ -4910,7 +4907,7 @@
         <v>105</v>
       </c>
       <c r="BG24" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH24" s="33">
         <v>1</v>
@@ -4933,7 +4930,7 @@
         <v>229</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>105</v>
@@ -4945,13 +4942,13 @@
         <v>1</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I25" s="33">
         <v>24</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>213</v>
@@ -4992,7 +4989,7 @@
       <c r="AB25" s="33"/>
       <c r="AE25" s="33"/>
       <c r="AH25" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI25" s="35" t="s">
         <v>221</v>
@@ -5007,25 +5004,25 @@
         <v>210</v>
       </c>
       <c r="AX25" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY25" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ25" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA25" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="BB25" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="BC25" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD25" s="33" t="s">
         <v>293</v>
-      </c>
-      <c r="BA25" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="BB25" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="BC25" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD25" s="33" t="s">
-        <v>295</v>
       </c>
       <c r="BE25" s="33" t="s">
         <v>105</v>
@@ -5034,7 +5031,7 @@
         <v>105</v>
       </c>
       <c r="BG25" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH25" s="33">
         <v>1</v>
@@ -5057,7 +5054,7 @@
         <v>229</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>105</v>
@@ -5069,13 +5066,13 @@
         <v>1</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I26" s="33">
         <v>25</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>213</v>
@@ -5116,7 +5113,7 @@
       <c r="AB26" s="33"/>
       <c r="AE26" s="33"/>
       <c r="AH26" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI26" s="35" t="s">
         <v>221</v>
@@ -5131,25 +5128,25 @@
         <v>211</v>
       </c>
       <c r="AX26" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY26" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ26" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA26" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="BB26" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="BC26" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD26" s="33" t="s">
         <v>293</v>
-      </c>
-      <c r="BA26" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="BB26" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="BC26" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD26" s="33" t="s">
-        <v>295</v>
       </c>
       <c r="BE26" s="33" t="s">
         <v>105</v>
@@ -5158,7 +5155,7 @@
         <v>105</v>
       </c>
       <c r="BG26" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH26" s="33">
         <v>1</v>
@@ -5181,7 +5178,7 @@
         <v>229</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>105</v>
@@ -5193,13 +5190,13 @@
         <v>2</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I27" s="33">
         <v>26</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>213</v>
@@ -5240,7 +5237,7 @@
       <c r="AB27" s="33"/>
       <c r="AE27" s="33"/>
       <c r="AH27" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI27" s="35" t="s">
         <v>221</v>
@@ -5255,25 +5252,25 @@
         <v>210</v>
       </c>
       <c r="AX27" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY27" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ27" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA27" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="BB27" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="BC27" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD27" s="33" t="s">
         <v>293</v>
-      </c>
-      <c r="BA27" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="BB27" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="BC27" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="BD27" s="33" t="s">
-        <v>295</v>
       </c>
       <c r="BE27" s="33" t="s">
         <v>105</v>
@@ -5282,7 +5279,7 @@
         <v>105</v>
       </c>
       <c r="BG27" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH27" s="33">
         <v>1</v>
@@ -5305,7 +5302,7 @@
         <v>229</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>105</v>
@@ -5317,13 +5314,13 @@
         <v>2</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I28" s="33">
         <v>27</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>213</v>
@@ -5364,7 +5361,7 @@
       <c r="AB28" s="33"/>
       <c r="AE28" s="33"/>
       <c r="AH28" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI28" s="35" t="s">
         <v>221</v>
@@ -5379,25 +5376,25 @@
         <v>211</v>
       </c>
       <c r="AX28" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY28" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ28" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA28" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="BB28" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="BC28" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD28" s="33" t="s">
         <v>293</v>
-      </c>
-      <c r="BA28" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="BB28" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="BC28" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="BD28" s="33" t="s">
-        <v>295</v>
       </c>
       <c r="BE28" s="33" t="s">
         <v>105</v>
@@ -5406,7 +5403,7 @@
         <v>105</v>
       </c>
       <c r="BG28" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH28" s="33">
         <v>1</v>
@@ -5429,7 +5426,7 @@
         <v>229</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>105</v>
@@ -5441,13 +5438,13 @@
         <v>3</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I29" s="33">
         <v>28</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>213</v>
@@ -5488,7 +5485,7 @@
       <c r="AB29" s="33"/>
       <c r="AE29" s="33"/>
       <c r="AH29" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI29" s="35" t="s">
         <v>221</v>
@@ -5503,25 +5500,25 @@
         <v>210</v>
       </c>
       <c r="AX29" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY29" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ29" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA29" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="BB29" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="BC29" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD29" s="33" t="s">
         <v>293</v>
-      </c>
-      <c r="BA29" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="BB29" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="BC29" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="BD29" s="33" t="s">
-        <v>295</v>
       </c>
       <c r="BE29" s="33" t="s">
         <v>105</v>
@@ -5530,7 +5527,7 @@
         <v>105</v>
       </c>
       <c r="BG29" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH29" s="33">
         <v>1</v>
@@ -5553,7 +5550,7 @@
         <v>229</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>105</v>
@@ -5565,13 +5562,13 @@
         <v>3</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I30" s="33">
         <v>29</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>213</v>
@@ -5612,7 +5609,7 @@
       <c r="AB30" s="33"/>
       <c r="AE30" s="33"/>
       <c r="AH30" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI30" s="35" t="s">
         <v>221</v>
@@ -5627,25 +5624,25 @@
         <v>211</v>
       </c>
       <c r="AX30" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY30" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ30" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA30" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="BB30" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="BC30" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD30" s="33" t="s">
         <v>293</v>
-      </c>
-      <c r="BA30" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="BB30" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="BC30" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="BD30" s="33" t="s">
-        <v>295</v>
       </c>
       <c r="BE30" s="33" t="s">
         <v>105</v>
@@ -5654,7 +5651,7 @@
         <v>105</v>
       </c>
       <c r="BG30" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH30" s="33">
         <v>1</v>
@@ -5677,7 +5674,7 @@
         <v>229</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>105</v>
@@ -5689,13 +5686,13 @@
         <v>6</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I31" s="33">
         <v>30</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>213</v>
@@ -5736,7 +5733,7 @@
       <c r="AB31" s="33"/>
       <c r="AE31" s="33"/>
       <c r="AH31" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI31" s="35" t="s">
         <v>221</v>
@@ -5751,25 +5748,25 @@
         <v>211</v>
       </c>
       <c r="AX31" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY31" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ31" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA31" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB31" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC31" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD31" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE31" s="33" t="s">
         <v>105</v>
@@ -5778,7 +5775,7 @@
         <v>60</v>
       </c>
       <c r="BG31" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH31" s="33">
         <v>1</v>
@@ -5801,7 +5798,7 @@
         <v>229</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>105</v>
@@ -5813,13 +5810,13 @@
         <v>7</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I32" s="33">
         <v>31</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>213</v>
@@ -5860,7 +5857,7 @@
       <c r="AB32" s="33"/>
       <c r="AE32" s="33"/>
       <c r="AH32" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI32" s="35" t="s">
         <v>221</v>
@@ -5875,25 +5872,25 @@
         <v>211</v>
       </c>
       <c r="AX32" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY32" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ32" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA32" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB32" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC32" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD32" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE32" s="33" t="s">
         <v>105</v>
@@ -5902,7 +5899,7 @@
         <v>60</v>
       </c>
       <c r="BG32" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH32" s="33">
         <v>1</v>
@@ -5925,7 +5922,7 @@
         <v>229</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>105</v>
@@ -5937,13 +5934,13 @@
         <v>8</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I33" s="33">
         <v>32</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>213</v>
@@ -5984,7 +5981,7 @@
       <c r="AB33" s="33"/>
       <c r="AE33" s="33"/>
       <c r="AH33" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI33" s="35" t="s">
         <v>221</v>
@@ -5999,25 +5996,25 @@
         <v>211</v>
       </c>
       <c r="AX33" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY33" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ33" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA33" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB33" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC33" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD33" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE33" s="33" t="s">
         <v>105</v>
@@ -6026,7 +6023,7 @@
         <v>60</v>
       </c>
       <c r="BG33" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH33" s="33">
         <v>1</v>
@@ -6049,7 +6046,7 @@
         <v>229</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>105</v>
@@ -6061,13 +6058,13 @@
         <v>8</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I34" s="33">
         <v>33</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>213</v>
@@ -6108,7 +6105,7 @@
       <c r="AB34" s="33"/>
       <c r="AE34" s="33"/>
       <c r="AH34" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI34" s="35" t="s">
         <v>221</v>
@@ -6123,25 +6120,25 @@
         <v>211</v>
       </c>
       <c r="AX34" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY34" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ34" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA34" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB34" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC34" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD34" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE34" s="33" t="s">
         <v>105</v>
@@ -6150,7 +6147,7 @@
         <v>60</v>
       </c>
       <c r="BG34" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH34" s="33">
         <v>1</v>
@@ -6167,13 +6164,13 @@
     </row>
     <row r="35" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="33" t="s">
-        <v>230</v>
+        <v>352</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>105</v>
@@ -6188,10 +6185,10 @@
         <v>210</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>213</v>
@@ -6232,7 +6229,7 @@
       <c r="AB35" s="33"/>
       <c r="AE35" s="33"/>
       <c r="AH35" s="33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AI35" s="35" t="s">
         <v>221</v>
@@ -6247,25 +6244,25 @@
         <v>210</v>
       </c>
       <c r="AX35" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY35" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ35" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA35" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BB35" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC35" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD35" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BE35" s="33" t="s">
         <v>60</v>
@@ -6274,7 +6271,7 @@
         <v>105</v>
       </c>
       <c r="BG35" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH35" s="33">
         <v>2</v>
@@ -6291,13 +6288,13 @@
     </row>
     <row r="36" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="33" t="s">
-        <v>230</v>
+        <v>352</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>105</v>
@@ -6312,10 +6309,10 @@
         <v>211</v>
       </c>
       <c r="I36" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>213</v>
@@ -6356,7 +6353,7 @@
       <c r="AB36" s="33"/>
       <c r="AE36" s="33"/>
       <c r="AH36" s="33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AI36" s="35" t="s">
         <v>221</v>
@@ -6371,25 +6368,25 @@
         <v>211</v>
       </c>
       <c r="AX36" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY36" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ36" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA36" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BB36" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC36" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD36" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BE36" s="33" t="s">
         <v>60</v>
@@ -6398,7 +6395,7 @@
         <v>105</v>
       </c>
       <c r="BG36" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH36" s="33">
         <v>2</v>
@@ -6415,16 +6412,16 @@
     </row>
     <row r="37" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="B37" s="41" t="s">
-        <v>232</v>
-      </c>
       <c r="C37" s="35" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>60</v>
@@ -6436,13 +6433,13 @@
         <v>1</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I37" s="33">
         <v>36</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>213</v>
@@ -6483,7 +6480,7 @@
       <c r="AB37" s="33"/>
       <c r="AE37" s="33"/>
       <c r="AH37" s="33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AI37" s="35" t="s">
         <v>221</v>
@@ -6498,25 +6495,25 @@
         <v>210</v>
       </c>
       <c r="AX37" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY37" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ37" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA37" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB37" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC37" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD37" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE37" s="33" t="s">
         <v>105</v>
@@ -6525,7 +6522,7 @@
         <v>60</v>
       </c>
       <c r="BG37" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH37" s="33">
         <v>1</v>
@@ -6542,16 +6539,16 @@
     </row>
     <row r="38" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="C38" s="35" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>60</v>
@@ -6563,13 +6560,13 @@
         <v>1</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I38" s="33">
         <v>37</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>213</v>
@@ -6610,7 +6607,7 @@
       <c r="AB38" s="33"/>
       <c r="AE38" s="33"/>
       <c r="AH38" s="33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AI38" s="35" t="s">
         <v>221</v>
@@ -6625,25 +6622,25 @@
         <v>211</v>
       </c>
       <c r="AX38" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY38" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ38" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA38" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB38" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC38" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD38" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE38" s="33" t="s">
         <v>105</v>
@@ -6652,7 +6649,7 @@
         <v>60</v>
       </c>
       <c r="BG38" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH38" s="33">
         <v>1</v>
@@ -6669,13 +6666,13 @@
     </row>
     <row r="39" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="B39" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="B39" s="41" t="s">
-        <v>305</v>
-      </c>
       <c r="C39" s="35" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>105</v>
@@ -6690,10 +6687,10 @@
         <v>210</v>
       </c>
       <c r="I39" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>213</v>
@@ -6734,7 +6731,7 @@
       <c r="AB39" s="33"/>
       <c r="AE39" s="33"/>
       <c r="AH39" s="41" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AI39" s="35" t="s">
         <v>221</v>
@@ -6749,25 +6746,25 @@
         <v>210</v>
       </c>
       <c r="AX39" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY39" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ39" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA39" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BB39" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC39" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD39" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BE39" s="33" t="s">
         <v>60</v>
@@ -6776,7 +6773,7 @@
         <v>105</v>
       </c>
       <c r="BG39" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH39" s="33">
         <v>2</v>
@@ -6793,13 +6790,13 @@
     </row>
     <row r="40" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="B40" s="41" t="s">
-        <v>306</v>
-      </c>
       <c r="C40" s="35" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>105</v>
@@ -6814,10 +6811,10 @@
         <v>210</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>213</v>
@@ -6858,7 +6855,7 @@
       <c r="AB40" s="33"/>
       <c r="AE40" s="33"/>
       <c r="AH40" s="41" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AI40" s="35" t="s">
         <v>221</v>
@@ -6873,25 +6870,25 @@
         <v>210</v>
       </c>
       <c r="AX40" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY40" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ40" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA40" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BB40" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC40" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD40" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BE40" s="33" t="s">
         <v>60</v>
@@ -6900,7 +6897,7 @@
         <v>105</v>
       </c>
       <c r="BG40" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH40" s="33">
         <v>2</v>
@@ -6917,16 +6914,16 @@
     </row>
     <row r="41" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>60</v>
@@ -6944,7 +6941,7 @@
         <v>40</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>213</v>
@@ -6985,7 +6982,7 @@
       <c r="AB41" s="33"/>
       <c r="AE41" s="33"/>
       <c r="AH41" s="41" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AI41" s="35" t="s">
         <v>221</v>
@@ -7000,25 +6997,25 @@
         <v>210</v>
       </c>
       <c r="AX41" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY41" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ41" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA41" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BB41" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC41" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD41" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE41" s="33" t="s">
         <v>60</v>
@@ -7027,7 +7024,7 @@
         <v>105</v>
       </c>
       <c r="BG41" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH41" s="33">
         <v>4</v>
@@ -7044,16 +7041,16 @@
     </row>
     <row r="42" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>60</v>
@@ -7071,7 +7068,7 @@
         <v>41</v>
       </c>
       <c r="J42" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>213</v>
@@ -7112,7 +7109,7 @@
       <c r="AB42" s="33"/>
       <c r="AE42" s="33"/>
       <c r="AH42" s="41" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AI42" s="35" t="s">
         <v>221</v>
@@ -7127,25 +7124,25 @@
         <v>211</v>
       </c>
       <c r="AX42" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY42" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ42" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA42" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BB42" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC42" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD42" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE42" s="33" t="s">
         <v>60</v>
@@ -7154,7 +7151,7 @@
         <v>105</v>
       </c>
       <c r="BG42" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH42" s="33">
         <v>4</v>
@@ -7171,16 +7168,16 @@
     </row>
     <row r="43" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="B43" s="41" t="s">
-        <v>235</v>
-      </c>
       <c r="C43" s="35" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>60</v>
@@ -7192,13 +7189,13 @@
         <v>2</v>
       </c>
       <c r="H43" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I43" s="33">
         <v>42</v>
       </c>
       <c r="J43" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>213</v>
@@ -7239,7 +7236,7 @@
       <c r="AB43" s="33"/>
       <c r="AE43" s="33"/>
       <c r="AH43" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI43" s="35" t="s">
         <v>221</v>
@@ -7254,25 +7251,25 @@
         <v>210</v>
       </c>
       <c r="AX43" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY43" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ43" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA43" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BB43" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC43" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD43" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE43" s="33" t="s">
         <v>60</v>
@@ -7281,7 +7278,7 @@
         <v>105</v>
       </c>
       <c r="BG43" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH43" s="33">
         <v>4</v>
@@ -7298,16 +7295,16 @@
     </row>
     <row r="44" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="B44" s="33" t="s">
-        <v>235</v>
-      </c>
       <c r="C44" s="35" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>60</v>
@@ -7319,13 +7316,13 @@
         <v>2</v>
       </c>
       <c r="H44" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I44" s="33">
         <v>43</v>
       </c>
       <c r="J44" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>213</v>
@@ -7366,7 +7363,7 @@
       <c r="AB44" s="33"/>
       <c r="AE44" s="33"/>
       <c r="AH44" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI44" s="35" t="s">
         <v>221</v>
@@ -7381,25 +7378,25 @@
         <v>211</v>
       </c>
       <c r="AX44" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY44" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ44" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA44" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BB44" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC44" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD44" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE44" s="33" t="s">
         <v>60</v>
@@ -7408,7 +7405,7 @@
         <v>105</v>
       </c>
       <c r="BG44" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH44" s="33">
         <v>4</v>
@@ -7425,16 +7422,16 @@
     </row>
     <row r="45" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="B45" s="41" t="s">
-        <v>237</v>
-      </c>
       <c r="C45" s="35" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>60</v>
@@ -7446,13 +7443,13 @@
         <v>1</v>
       </c>
       <c r="H45" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J45" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>213</v>
@@ -7495,7 +7492,7 @@
       </c>
       <c r="AE45" s="39"/>
       <c r="AH45" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI45" s="35" t="s">
         <v>221</v>
@@ -7510,25 +7507,25 @@
         <v>210</v>
       </c>
       <c r="AX45" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY45" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ45" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA45" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BB45" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC45" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD45" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BE45" s="33" t="s">
         <v>105</v>
@@ -7537,7 +7534,7 @@
         <v>105</v>
       </c>
       <c r="BG45" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH45" s="33">
         <v>2</v>
@@ -7554,16 +7551,16 @@
     </row>
     <row r="46" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="B46" s="41" t="s">
-        <v>239</v>
-      </c>
       <c r="C46" s="35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>60</v>
@@ -7575,13 +7572,13 @@
         <v>2</v>
       </c>
       <c r="H46" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I46" s="33">
         <v>45</v>
       </c>
       <c r="J46" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>213</v>
@@ -7622,7 +7619,7 @@
       <c r="AB46" s="33"/>
       <c r="AE46" s="33"/>
       <c r="AH46" s="41" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AI46" s="35" t="s">
         <v>221</v>
@@ -7637,25 +7634,25 @@
         <v>210</v>
       </c>
       <c r="AX46" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY46" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ46" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA46" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB46" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC46" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BD46" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE46" s="33" t="s">
         <v>105</v>
@@ -7664,7 +7661,7 @@
         <v>60</v>
       </c>
       <c r="BG46" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH46" s="33">
         <v>4</v>
@@ -7681,16 +7678,16 @@
     </row>
     <row r="47" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>239</v>
-      </c>
       <c r="C47" s="35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>60</v>
@@ -7702,13 +7699,13 @@
         <v>2</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I47" s="33">
         <v>46</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>213</v>
@@ -7749,7 +7746,7 @@
       <c r="AB47" s="33"/>
       <c r="AE47" s="33"/>
       <c r="AH47" s="41" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AI47" s="35" t="s">
         <v>221</v>
@@ -7764,25 +7761,25 @@
         <v>211</v>
       </c>
       <c r="AX47" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AY47" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ47" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA47" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB47" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC47" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BD47" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE47" s="33" t="s">
         <v>105</v>
@@ -7791,7 +7788,7 @@
         <v>60</v>
       </c>
       <c r="BG47" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH47" s="33">
         <v>4</v>
@@ -7808,16 +7805,16 @@
     </row>
     <row r="48" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>60</v>
@@ -7829,13 +7826,13 @@
         <v>1</v>
       </c>
       <c r="H48" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I48" s="33">
         <v>47</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>213</v>
@@ -7876,7 +7873,7 @@
       <c r="AB48" s="33"/>
       <c r="AE48" s="33"/>
       <c r="AH48" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI48" s="35" t="s">
         <v>221</v>
@@ -7891,25 +7888,25 @@
         <v>210</v>
       </c>
       <c r="AX48" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY48" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ48" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA48" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB48" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC48" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BD48" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE48" s="33" t="s">
         <v>105</v>
@@ -7918,7 +7915,7 @@
         <v>60</v>
       </c>
       <c r="BG48" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH48" s="33">
         <v>1</v>
@@ -7935,16 +7932,16 @@
     </row>
     <row r="49" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>60</v>
@@ -7956,13 +7953,13 @@
         <v>1</v>
       </c>
       <c r="H49" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I49" s="33">
         <v>48</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>213</v>
@@ -8003,7 +8000,7 @@
       <c r="AB49" s="33"/>
       <c r="AE49" s="33"/>
       <c r="AH49" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI49" s="35" t="s">
         <v>221</v>
@@ -8018,25 +8015,25 @@
         <v>211</v>
       </c>
       <c r="AX49" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY49" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ49" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA49" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB49" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC49" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BD49" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE49" s="33" t="s">
         <v>105</v>
@@ -8045,7 +8042,7 @@
         <v>60</v>
       </c>
       <c r="BG49" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH49" s="33">
         <v>1</v>
@@ -8062,16 +8059,16 @@
     </row>
     <row r="50" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>60</v>
@@ -8083,13 +8080,13 @@
         <v>2</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I50" s="33">
         <v>49</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>213</v>
@@ -8130,7 +8127,7 @@
       <c r="AB50" s="33"/>
       <c r="AE50" s="33"/>
       <c r="AH50" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI50" s="35" t="s">
         <v>221</v>
@@ -8145,25 +8142,25 @@
         <v>210</v>
       </c>
       <c r="AX50" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY50" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ50" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA50" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB50" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC50" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BD50" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE50" s="33" t="s">
         <v>105</v>
@@ -8172,7 +8169,7 @@
         <v>60</v>
       </c>
       <c r="BG50" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH50" s="33">
         <v>1</v>
@@ -8189,16 +8186,16 @@
     </row>
     <row r="51" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>60</v>
@@ -8210,13 +8207,13 @@
         <v>2</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I51" s="33">
         <v>50</v>
       </c>
       <c r="J51" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>213</v>
@@ -8257,7 +8254,7 @@
       <c r="AB51" s="33"/>
       <c r="AE51" s="33"/>
       <c r="AH51" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI51" s="35" t="s">
         <v>221</v>
@@ -8272,25 +8269,25 @@
         <v>211</v>
       </c>
       <c r="AX51" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY51" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ51" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA51" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB51" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC51" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BD51" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE51" s="33" t="s">
         <v>105</v>
@@ -8299,7 +8296,7 @@
         <v>60</v>
       </c>
       <c r="BG51" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH51" s="33">
         <v>1</v>
@@ -8316,16 +8313,16 @@
     </row>
     <row r="52" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="B52" s="41" t="s">
-        <v>242</v>
-      </c>
       <c r="C52" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>60</v>
@@ -8337,13 +8334,13 @@
         <v>1</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I52" s="33">
         <v>51</v>
       </c>
       <c r="J52" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>213</v>
@@ -8384,7 +8381,7 @@
       <c r="AB52" s="33"/>
       <c r="AE52" s="33"/>
       <c r="AH52" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI52" s="35" t="s">
         <v>221</v>
@@ -8399,25 +8396,25 @@
         <v>210</v>
       </c>
       <c r="AX52" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY52" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AZ52" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA52" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB52" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC52" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BD52" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE52" s="33" t="s">
         <v>105</v>
@@ -8426,7 +8423,7 @@
         <v>60</v>
       </c>
       <c r="BG52" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH52" s="33">
         <v>1</v>
@@ -8443,16 +8440,16 @@
     </row>
     <row r="53" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B53" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B53" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="C53" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>60</v>
@@ -8464,13 +8461,13 @@
         <v>1</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I53" s="33">
         <v>52</v>
       </c>
       <c r="J53" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>213</v>
@@ -8511,7 +8508,7 @@
       <c r="AB53" s="33"/>
       <c r="AE53" s="33"/>
       <c r="AH53" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI53" s="35" t="s">
         <v>221</v>
@@ -8526,25 +8523,25 @@
         <v>211</v>
       </c>
       <c r="AX53" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY53" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ53" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA53" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB53" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC53" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BD53" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE53" s="33" t="s">
         <v>105</v>
@@ -8553,7 +8550,7 @@
         <v>60</v>
       </c>
       <c r="BG53" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH53" s="33">
         <v>1</v>
@@ -8570,16 +8567,16 @@
     </row>
     <row r="54" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B54" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="C54" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>60</v>
@@ -8591,13 +8588,13 @@
         <v>1</v>
       </c>
       <c r="H54" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I54" s="33">
         <v>53</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>213</v>
@@ -8638,7 +8635,7 @@
       <c r="AB54" s="33"/>
       <c r="AE54" s="33"/>
       <c r="AH54" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI54" s="35" t="s">
         <v>221</v>
@@ -8653,25 +8650,25 @@
         <v>210</v>
       </c>
       <c r="AX54" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY54" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AZ54" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA54" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB54" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC54" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BD54" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE54" s="33" t="s">
         <v>105</v>
@@ -8680,7 +8677,7 @@
         <v>60</v>
       </c>
       <c r="BG54" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH54" s="33">
         <v>1</v>
@@ -8697,16 +8694,16 @@
     </row>
     <row r="55" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B55" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="C55" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>60</v>
@@ -8718,13 +8715,13 @@
         <v>1</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I55" s="33">
         <v>54</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>213</v>
@@ -8765,7 +8762,7 @@
       <c r="AB55" s="33"/>
       <c r="AE55" s="33"/>
       <c r="AH55" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI55" s="35" t="s">
         <v>221</v>
@@ -8780,25 +8777,25 @@
         <v>211</v>
       </c>
       <c r="AX55" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY55" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ55" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA55" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB55" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC55" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BD55" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE55" s="33" t="s">
         <v>105</v>
@@ -8807,7 +8804,7 @@
         <v>60</v>
       </c>
       <c r="BG55" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH55" s="33">
         <v>1</v>
@@ -8824,16 +8821,16 @@
     </row>
     <row r="56" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B56" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="C56" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>60</v>
@@ -8845,13 +8842,13 @@
         <v>2</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I56" s="33">
         <v>55</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>213</v>
@@ -8892,7 +8889,7 @@
       <c r="AB56" s="33"/>
       <c r="AE56" s="33"/>
       <c r="AH56" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI56" s="35" t="s">
         <v>221</v>
@@ -8907,25 +8904,25 @@
         <v>210</v>
       </c>
       <c r="AX56" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY56" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AZ56" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA56" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB56" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC56" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD56" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE56" s="33" t="s">
         <v>105</v>
@@ -8934,7 +8931,7 @@
         <v>60</v>
       </c>
       <c r="BG56" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH56" s="33">
         <v>1</v>
@@ -8951,16 +8948,16 @@
     </row>
     <row r="57" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B57" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="C57" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>60</v>
@@ -8972,13 +8969,13 @@
         <v>2</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I57" s="33">
         <v>56</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>213</v>
@@ -9019,7 +9016,7 @@
       <c r="AB57" s="33"/>
       <c r="AE57" s="33"/>
       <c r="AH57" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI57" s="35" t="s">
         <v>221</v>
@@ -9034,25 +9031,25 @@
         <v>211</v>
       </c>
       <c r="AX57" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY57" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ57" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA57" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB57" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC57" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD57" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE57" s="33" t="s">
         <v>105</v>
@@ -9061,7 +9058,7 @@
         <v>60</v>
       </c>
       <c r="BG57" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH57" s="33">
         <v>1</v>
@@ -9078,16 +9075,16 @@
     </row>
     <row r="58" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B58" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="C58" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>60</v>
@@ -9099,13 +9096,13 @@
         <v>3</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I58" s="33">
         <v>57</v>
       </c>
       <c r="J58" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>213</v>
@@ -9146,7 +9143,7 @@
       <c r="AB58" s="33"/>
       <c r="AE58" s="33"/>
       <c r="AH58" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI58" s="35" t="s">
         <v>221</v>
@@ -9161,25 +9158,25 @@
         <v>210</v>
       </c>
       <c r="AX58" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY58" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ58" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA58" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB58" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC58" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BD58" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE58" s="33" t="s">
         <v>105</v>
@@ -9188,7 +9185,7 @@
         <v>105</v>
       </c>
       <c r="BG58" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH58" s="33">
         <v>1</v>
@@ -9205,16 +9202,16 @@
     </row>
     <row r="59" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B59" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B59" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="C59" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>60</v>
@@ -9226,13 +9223,13 @@
         <v>3</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I59" s="33">
         <v>58</v>
       </c>
       <c r="J59" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>213</v>
@@ -9273,7 +9270,7 @@
       <c r="AB59" s="33"/>
       <c r="AE59" s="33"/>
       <c r="AH59" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI59" s="35" t="s">
         <v>221</v>
@@ -9288,25 +9285,25 @@
         <v>211</v>
       </c>
       <c r="AX59" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY59" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ59" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA59" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB59" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BC59" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BD59" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE59" s="33" t="s">
         <v>105</v>
@@ -9315,7 +9312,7 @@
         <v>105</v>
       </c>
       <c r="BG59" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH59" s="33">
         <v>1</v>
@@ -9332,16 +9329,16 @@
     </row>
     <row r="60" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B60" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="C60" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>60</v>
@@ -9353,13 +9350,13 @@
         <v>3</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I60" s="33">
         <v>59</v>
       </c>
       <c r="J60" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>213</v>
@@ -9400,7 +9397,7 @@
       <c r="AB60" s="33"/>
       <c r="AE60" s="33"/>
       <c r="AH60" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI60" s="35" t="s">
         <v>221</v>
@@ -9415,25 +9412,25 @@
         <v>210</v>
       </c>
       <c r="AX60" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY60" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AZ60" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA60" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB60" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC60" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD60" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE60" s="33" t="s">
         <v>105</v>
@@ -9442,7 +9439,7 @@
         <v>105</v>
       </c>
       <c r="BG60" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH60" s="33">
         <v>1</v>
@@ -9459,16 +9456,16 @@
     </row>
     <row r="61" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B61" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="C61" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>60</v>
@@ -9480,13 +9477,13 @@
         <v>3</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I61" s="33">
         <v>60</v>
       </c>
       <c r="J61" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>213</v>
@@ -9527,7 +9524,7 @@
       <c r="AB61" s="33"/>
       <c r="AE61" s="33"/>
       <c r="AH61" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI61" s="35" t="s">
         <v>221</v>
@@ -9542,25 +9539,25 @@
         <v>211</v>
       </c>
       <c r="AX61" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AY61" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AZ61" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BA61" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BB61" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BC61" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BD61" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BE61" s="33" t="s">
         <v>105</v>
@@ -9569,7 +9566,7 @@
         <v>105</v>
       </c>
       <c r="BG61" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BH61" s="33">
         <v>1</v>
@@ -9655,11 +9652,11 @@
   </sheetPr>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="189" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10514,7 +10511,7 @@
     </row>
     <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="45" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B50" s="8"/>
       <c r="D50" s="8"/>
